--- a/biology/Botanique/Jardin_japonais_d'Aix-les-Bains/Jardin_japonais_d'Aix-les-Bains.xlsx
+++ b/biology/Botanique/Jardin_japonais_d'Aix-les-Bains/Jardin_japonais_d'Aix-les-Bains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_japonais_d%27Aix-les-Bains</t>
+          <t>Jardin_japonais_d'Aix-les-Bains</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin japonais d'Aix-les-Bains est un espace vert public d'origine japonaise installé dans le jardin d'agrément du casino Grand-Cercle, à Aix-les-Bains (Savoie).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_japonais_d%27Aix-les-Bains</t>
+          <t>Jardin_japonais_d'Aix-les-Bains</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le cadre des animations proposées par la ville d'Aix-les-Bains concernant l'année du Japon en France en 1998, la commune décide d'ériger un jardin japonais en centre-ville, dans le parc connexe au casino Grand-Cercle[1]. Ainsi, deux maîtres japonais, Seïji Imanaka et Sado Yasumoro, interviennent dans le dessin et l'aménagement de l'espace vert[2].
-La municipalité aixoise précise qu'il a été plus spécifiquement créé « à l’initiative de madame Kobayashi en hommage à son mari, diplomate et ambassadeur du Japon venu à Aix-les-Bains pour sa retraite[2] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cadre des animations proposées par la ville d'Aix-les-Bains concernant l'année du Japon en France en 1998, la commune décide d'ériger un jardin japonais en centre-ville, dans le parc connexe au casino Grand-Cercle. Ainsi, deux maîtres japonais, Seïji Imanaka et Sado Yasumoro, interviennent dans le dessin et l'aménagement de l'espace vert.
+La municipalité aixoise précise qu'il a été plus spécifiquement créé « à l’initiative de madame Kobayashi en hommage à son mari, diplomate et ambassadeur du Japon venu à Aix-les-Bains pour sa retraite ».
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_japonais_d%27Aix-les-Bains</t>
+          <t>Jardin_japonais_d'Aix-les-Bains</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +559,50 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ce jardin est construit à partir du « concept du cœur », qui représente « la communication au-delà des mots » selon le site de la ville d'Aix-les-Bains[2].
-Le jardin est ouvert sur l'extérieur, il n'est pas fermé volontairement. Il permet en effet d'offrir une vue sur le mont Revard[2].
-Ce jardin est, par ailleurs, recensé sur le site du patrimoine de Rhône-Alpes[3].
-Composition
-Dans le jardin, on retrouve principalement[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce jardin est construit à partir du « concept du cœur », qui représente « la communication au-delà des mots » selon le site de la ville d'Aix-les-Bains.
+Le jardin est ouvert sur l'extérieur, il n'est pas fermé volontairement. Il permet en effet d'offrir une vue sur le mont Revard.
+Ce jardin est, par ailleurs, recensé sur le site du patrimoine de Rhône-Alpes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jardin_japonais_d'Aix-les-Bains</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_japonais_d%27Aix-les-Bains</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Composition</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dans le jardin, on retrouve principalement :
 du gravier blanc qui représente l'eau et donc le lac du Bourget ;
 des roches qui, elles, représentent plutôt des îles et donc le Japon ;
 un pont en bois de type japonais qui symbolise le lien tissé entre la France et le Japon ;
